--- a/race_results_2023-2024.xlsx
+++ b/race_results_2023-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryLaw\Documents\GitHub\terrysclaw\download-racing-result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DF854D-63D8-46B2-9E5A-C59354D13024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7F963-74D6-43C8-85B7-FA2761F923FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="405" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,12 @@
     <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$F$2:$F$52</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$2:$C$52</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$F$2:$F$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
-    <pivotCache cacheId="30" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7045" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7045" uniqueCount="870">
   <si>
     <t>Date</t>
   </si>
@@ -2644,9 +2642,6 @@
   </si>
   <si>
     <t>[黎昭昇]</t>
-  </si>
-  <si>
-    <t>[方嘉柏](退款組合:</t>
   </si>
   <si>
     <t>計數 - Date</t>
@@ -2697,13 +2692,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4016,7 +4010,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12106275" y="304800"/>
+              <a:off x="15744825" y="304800"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4094,7 +4088,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12182475" y="3619500"/>
+              <a:off x="15821025" y="3619500"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5281,7 +5275,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBA4C5CE-DC11-495B-8C11-73BAF9ACEAD1}" name="樞紐分析表8" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBA4C5CE-DC11-495B-8C11-73BAF9ACEAD1}" name="樞紐分析表8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="練馬師王編號">
   <location ref="Q1:S17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -5392,7 +5386,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC623B73-E176-4D78-9380-F6CDA4D1068E}" name="樞紐分析表7" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="騎師王編號">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC623B73-E176-4D78-9380-F6CDA4D1068E}" name="樞紐分析表7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="騎師王編號">
   <location ref="M1:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -5483,7 +5477,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{665AD054-C55B-4129-85A4-6443AC14EF1E}" name="樞紐分析表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{665AD054-C55B-4129-85A4-6443AC14EF1E}" name="樞紐分析表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K1:O18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -5602,7 +5596,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E81AC119-66DA-4680-8DFE-E9E6E450FB4E}" name="樞紐分析表2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E81AC119-66DA-4680-8DFE-E9E6E450FB4E}" name="樞紐分析表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K1:O16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -6001,7 +5995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S465"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -33450,7 +33446,7 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33461,6 +33457,7 @@
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -33477,7 +33474,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -33486,7 +33483,7 @@
         <v>780</v>
       </c>
       <c r="F1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -33495,30 +33492,30 @@
         <v>780</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="N1" t="s">
+        <v>865</v>
+      </c>
+      <c r="O1" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="N1" t="s">
-        <v>866</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>865</v>
+      </c>
+      <c r="S1" t="s">
         <v>869</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="R1" t="s">
-        <v>866</v>
-      </c>
-      <c r="S1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
-        <f>DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B33" si="0">DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
         <v>45179</v>
       </c>
       <c r="C2">
@@ -33542,25 +33539,25 @@
         <v>3.75</v>
       </c>
       <c r="I2" t="b">
-        <f>OR(C2=2,F2=2)</f>
+        <f t="shared" ref="I2:I33" si="1">OR(C2=2,F2=2)</f>
         <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2">
         <v>16</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2">
         <v>36</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2">
         <v>18</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2">
         <v>54.230000000000004</v>
       </c>
     </row>
@@ -33568,8 +33565,8 @@
       <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="4">
-        <f>DATE(YEAR(A3),MONTH(A3),DAY(A3))</f>
+      <c r="B3" s="3">
+        <f t="shared" si="0"/>
         <v>45182</v>
       </c>
       <c r="C3">
@@ -33593,25 +33590,25 @@
         <v>8.5</v>
       </c>
       <c r="I3" t="b">
-        <f>OR(C3=2,F3=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
-        <v>15</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="O3">
         <v>70.25</v>
       </c>
       <c r="Q3" s="2">
         <v>2</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3">
         <v>11</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3">
         <v>49.45</v>
       </c>
     </row>
@@ -33619,8 +33616,8 @@
       <c r="A4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="4">
-        <f>DATE(YEAR(A4),MONTH(A4),DAY(A4))</f>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
         <v>45186</v>
       </c>
       <c r="C4">
@@ -33644,25 +33641,25 @@
         <v>7</v>
       </c>
       <c r="I4" t="b">
-        <f>OR(C4=2,F4=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4">
         <v>5</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4">
         <v>30</v>
       </c>
       <c r="Q4" s="2">
         <v>3</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4">
         <v>7</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4">
         <v>50.5</v>
       </c>
     </row>
@@ -33670,8 +33667,8 @@
       <c r="A5" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="4">
-        <f>DATE(YEAR(A5),MONTH(A5),DAY(A5))</f>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
         <v>45189</v>
       </c>
       <c r="C5">
@@ -33695,25 +33692,25 @@
         <v>1.75</v>
       </c>
       <c r="I5" t="b">
-        <f>OR(C5=2,F5=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>4</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5">
         <v>47.5</v>
       </c>
       <c r="Q5" s="2">
         <v>4</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5">
         <v>11</v>
       </c>
     </row>
@@ -33721,8 +33718,8 @@
       <c r="A6" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="4">
-        <f>DATE(YEAR(A6),MONTH(A6),DAY(A6))</f>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
         <v>45193</v>
       </c>
       <c r="C6">
@@ -33746,25 +33743,25 @@
         <v>22</v>
       </c>
       <c r="I6" t="b">
-        <f>OR(C6=2,F6=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>45</v>
       </c>
       <c r="Q6" s="2">
         <v>5</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6">
         <v>35.5</v>
       </c>
     </row>
@@ -33772,8 +33769,8 @@
       <c r="A7" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="4">
-        <f>DATE(YEAR(A7),MONTH(A7),DAY(A7))</f>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
         <v>45196</v>
       </c>
       <c r="C7">
@@ -33797,25 +33794,25 @@
         <v>4.5</v>
       </c>
       <c r="I7" t="b">
-        <f>OR(C7=2,F7=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>6</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7">
         <v>37</v>
       </c>
       <c r="Q7" s="2">
         <v>6</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7">
         <v>9</v>
       </c>
     </row>
@@ -33823,8 +33820,8 @@
       <c r="A8" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="4">
-        <f>DATE(YEAR(A8),MONTH(A8),DAY(A8))</f>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
         <v>45200</v>
       </c>
       <c r="C8">
@@ -33848,25 +33845,25 @@
         <v>3.2</v>
       </c>
       <c r="I8" t="b">
-        <f>OR(C8=2,F8=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>7</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <v>20</v>
       </c>
       <c r="Q8" s="2">
         <v>7</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8">
         <v>30</v>
       </c>
     </row>
@@ -33874,8 +33871,8 @@
       <c r="A9" t="s">
         <v>264</v>
       </c>
-      <c r="B9" s="4">
-        <f>DATE(YEAR(A9),MONTH(A9),DAY(A9))</f>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
         <v>45203</v>
       </c>
       <c r="C9">
@@ -33899,25 +33896,25 @@
         <v>22</v>
       </c>
       <c r="I9" t="b">
-        <f>OR(C9=2,F9=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>9</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9">
         <v>35</v>
       </c>
       <c r="Q9" s="2">
         <v>9</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9">
         <v>22</v>
       </c>
     </row>
@@ -33925,8 +33922,8 @@
       <c r="A10" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="4">
-        <f>DATE(YEAR(A10),MONTH(A10),DAY(A10))</f>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
         <v>45210</v>
       </c>
       <c r="C10">
@@ -33950,25 +33947,25 @@
         <v>25</v>
       </c>
       <c r="I10" t="b">
-        <f>OR(C10=2,F10=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>10</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10">
         <v>45</v>
       </c>
       <c r="Q10" s="2">
         <v>10</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10">
         <v>1</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10">
         <v>25</v>
       </c>
     </row>
@@ -33976,8 +33973,8 @@
       <c r="A11" t="s">
         <v>300</v>
       </c>
-      <c r="B11" s="4">
-        <f>DATE(YEAR(A11),MONTH(A11),DAY(A11))</f>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
         <v>45214</v>
       </c>
       <c r="C11">
@@ -34001,21 +33998,19 @@
         <v>6.5</v>
       </c>
       <c r="I11" t="b">
-        <f>OR(C11=2,F11=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
       <c r="Q11" s="2">
         <v>11</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11">
         <v>18</v>
       </c>
     </row>
@@ -34023,8 +34018,8 @@
       <c r="A12" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="4">
-        <f>DATE(YEAR(A12),MONTH(A12),DAY(A12))</f>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
         <v>45217</v>
       </c>
       <c r="C12">
@@ -34048,25 +34043,25 @@
         <v>45</v>
       </c>
       <c r="I12" t="b">
-        <f>OR(C12=2,F12=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <v>50</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12">
         <v>365.75</v>
       </c>
       <c r="Q12" s="2">
         <v>12</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12">
         <v>1</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12">
         <v>55</v>
       </c>
     </row>
@@ -34074,8 +34069,8 @@
       <c r="A13" t="s">
         <v>338</v>
       </c>
-      <c r="B13" s="4">
-        <f>DATE(YEAR(A13),MONTH(A13),DAY(A13))</f>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
         <v>45221</v>
       </c>
       <c r="C13">
@@ -34099,16 +34094,16 @@
         <v>6</v>
       </c>
       <c r="I13" t="b">
-        <f>OR(C13=2,F13=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>13</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13">
         <v>1</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13">
         <v>85</v>
       </c>
     </row>
@@ -34116,8 +34111,8 @@
       <c r="A14" t="s">
         <v>359</v>
       </c>
-      <c r="B14" s="4">
-        <f>DATE(YEAR(A14),MONTH(A14),DAY(A14))</f>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
         <v>45224</v>
       </c>
       <c r="C14">
@@ -34141,16 +34136,16 @@
         <v>60</v>
       </c>
       <c r="I14" t="b">
-        <f>OR(C14=2,F14=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>14</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14">
         <v>45</v>
       </c>
     </row>
@@ -34158,8 +34153,8 @@
       <c r="A15" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="4">
-        <f>DATE(YEAR(A15),MONTH(A15),DAY(A15))</f>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
         <v>45228</v>
       </c>
       <c r="C15">
@@ -34183,16 +34178,16 @@
         <v>3.75</v>
       </c>
       <c r="I15" t="b">
-        <f>OR(C15=2,F15=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>16</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15">
         <v>1</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15">
         <v>60</v>
       </c>
     </row>
@@ -34200,8 +34195,8 @@
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="4">
-        <f>DATE(YEAR(A16),MONTH(A16),DAY(A16))</f>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
         <v>45231</v>
       </c>
       <c r="C16">
@@ -34225,21 +34220,19 @@
         <v>12</v>
       </c>
       <c r="I16" t="b">
-        <f>OR(C16=2,F16=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>411</v>
       </c>
-      <c r="B17" s="4">
-        <f>DATE(YEAR(A17),MONTH(A17),DAY(A17))</f>
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
         <v>45235</v>
       </c>
       <c r="C17">
@@ -34263,16 +34256,16 @@
         <v>4</v>
       </c>
       <c r="I17" t="b">
-        <f>OR(C17=2,F17=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17">
         <v>50</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17">
         <v>549.68000000000006</v>
       </c>
     </row>
@@ -34280,8 +34273,8 @@
       <c r="A18" t="s">
         <v>428</v>
       </c>
-      <c r="B18" s="4">
-        <f>DATE(YEAR(A18),MONTH(A18),DAY(A18))</f>
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
         <v>45238</v>
       </c>
       <c r="C18">
@@ -34305,7 +34298,7 @@
         <v>8</v>
       </c>
       <c r="I18" t="b">
-        <f>OR(C18=2,F18=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34313,8 +34306,8 @@
       <c r="A19" t="s">
         <v>441</v>
       </c>
-      <c r="B19" s="4">
-        <f>DATE(YEAR(A19),MONTH(A19),DAY(A19))</f>
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
         <v>45241</v>
       </c>
       <c r="C19">
@@ -34338,7 +34331,7 @@
         <v>2.6</v>
       </c>
       <c r="I19" t="b">
-        <f>OR(C19=2,F19=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34346,8 +34339,8 @@
       <c r="A20" t="s">
         <v>451</v>
       </c>
-      <c r="B20" s="4">
-        <f>DATE(YEAR(A20),MONTH(A20),DAY(A20))</f>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
         <v>45245</v>
       </c>
       <c r="C20">
@@ -34371,7 +34364,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I20" t="b">
-        <f>OR(C20=2,F20=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34379,8 +34372,8 @@
       <c r="A21" t="s">
         <v>462</v>
       </c>
-      <c r="B21" s="4">
-        <f>DATE(YEAR(A21),MONTH(A21),DAY(A21))</f>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
         <v>45249</v>
       </c>
       <c r="C21">
@@ -34404,7 +34397,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="b">
-        <f>OR(C21=2,F21=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34412,8 +34405,8 @@
       <c r="A22" t="s">
         <v>481</v>
       </c>
-      <c r="B22" s="4">
-        <f>DATE(YEAR(A22),MONTH(A22),DAY(A22))</f>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
         <v>45252</v>
       </c>
       <c r="C22">
@@ -34437,7 +34430,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I22" t="b">
-        <f>OR(C22=2,F22=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34445,8 +34438,8 @@
       <c r="A23" t="s">
         <v>494</v>
       </c>
-      <c r="B23" s="4">
-        <f>DATE(YEAR(A23),MONTH(A23),DAY(A23))</f>
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
         <v>45256</v>
       </c>
       <c r="C23">
@@ -34470,7 +34463,7 @@
         <v>15</v>
       </c>
       <c r="I23" t="b">
-        <f>OR(C23=2,F23=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34478,8 +34471,8 @@
       <c r="A24" t="s">
         <v>505</v>
       </c>
-      <c r="B24" s="4">
-        <f>DATE(YEAR(A24),MONTH(A24),DAY(A24))</f>
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
         <v>45259</v>
       </c>
       <c r="C24">
@@ -34503,7 +34496,7 @@
         <v>9</v>
       </c>
       <c r="I24" t="b">
-        <f>OR(C24=2,F24=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34511,8 +34504,8 @@
       <c r="A25" t="s">
         <v>516</v>
       </c>
-      <c r="B25" s="4">
-        <f>DATE(YEAR(A25),MONTH(A25),DAY(A25))</f>
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
         <v>45263</v>
       </c>
       <c r="C25">
@@ -34536,7 +34529,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="b">
-        <f>OR(C25=2,F25=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34544,8 +34537,8 @@
       <c r="A26" t="s">
         <v>531</v>
       </c>
-      <c r="B26" s="4">
-        <f>DATE(YEAR(A26),MONTH(A26),DAY(A26))</f>
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
         <v>45266</v>
       </c>
       <c r="C26">
@@ -34569,7 +34562,7 @@
         <v>55</v>
       </c>
       <c r="I26" t="b">
-        <f>OR(C26=2,F26=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34577,8 +34570,8 @@
       <c r="A27" t="s">
         <v>544</v>
       </c>
-      <c r="B27" s="4">
-        <f>DATE(YEAR(A27),MONTH(A27),DAY(A27))</f>
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
         <v>45270</v>
       </c>
       <c r="C27">
@@ -34602,7 +34595,7 @@
         <v>5.5</v>
       </c>
       <c r="I27" t="b">
-        <f>OR(C27=2,F27=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34610,8 +34603,8 @@
       <c r="A28" t="s">
         <v>569</v>
       </c>
-      <c r="B28" s="4">
-        <f>DATE(YEAR(A28),MONTH(A28),DAY(A28))</f>
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
         <v>45273</v>
       </c>
       <c r="C28">
@@ -34635,7 +34628,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="b">
-        <f>OR(C28=2,F28=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34643,8 +34636,8 @@
       <c r="A29" t="s">
         <v>576</v>
       </c>
-      <c r="B29" s="4">
-        <f>DATE(YEAR(A29),MONTH(A29),DAY(A29))</f>
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
         <v>45277</v>
       </c>
       <c r="C29">
@@ -34668,7 +34661,7 @@
         <v>5.5</v>
       </c>
       <c r="I29" t="b">
-        <f>OR(C29=2,F29=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34676,8 +34669,8 @@
       <c r="A30" t="s">
         <v>589</v>
       </c>
-      <c r="B30" s="4">
-        <f>DATE(YEAR(A30),MONTH(A30),DAY(A30))</f>
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
         <v>45280</v>
       </c>
       <c r="C30">
@@ -34701,7 +34694,7 @@
         <v>4.5</v>
       </c>
       <c r="I30" t="b">
-        <f>OR(C30=2,F30=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34709,8 +34702,8 @@
       <c r="A31" t="s">
         <v>594</v>
       </c>
-      <c r="B31" s="4">
-        <f>DATE(YEAR(A31),MONTH(A31),DAY(A31))</f>
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
         <v>45283</v>
       </c>
       <c r="C31">
@@ -34734,7 +34727,7 @@
         <v>1.9</v>
       </c>
       <c r="I31" t="b">
-        <f>OR(C31=2,F31=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34742,8 +34735,8 @@
       <c r="A32" t="s">
         <v>604</v>
       </c>
-      <c r="B32" s="4">
-        <f>DATE(YEAR(A32),MONTH(A32),DAY(A32))</f>
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
         <v>45286</v>
       </c>
       <c r="C32">
@@ -34767,7 +34760,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="b">
-        <f>OR(C32=2,F32=2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34775,8 +34768,8 @@
       <c r="A33" t="s">
         <v>620</v>
       </c>
-      <c r="B33" s="4">
-        <f>DATE(YEAR(A33),MONTH(A33),DAY(A33))</f>
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
         <v>45289</v>
       </c>
       <c r="C33">
@@ -34800,7 +34793,7 @@
         <v>18</v>
       </c>
       <c r="I33" t="b">
-        <f>OR(C33=2,F33=2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34808,8 +34801,8 @@
       <c r="A34" t="s">
         <v>631</v>
       </c>
-      <c r="B34" s="4">
-        <f>DATE(YEAR(A34),MONTH(A34),DAY(A34))</f>
+      <c r="B34" s="3">
+        <f t="shared" ref="B34:B65" si="2">DATE(YEAR(A34),MONTH(A34),DAY(A34))</f>
         <v>45292</v>
       </c>
       <c r="C34">
@@ -34833,7 +34826,7 @@
         <v>3.25</v>
       </c>
       <c r="I34" t="b">
-        <f>OR(C34=2,F34=2)</f>
+        <f t="shared" ref="I34:I51" si="3">OR(C34=2,F34=2)</f>
         <v>0</v>
       </c>
     </row>
@@ -34841,8 +34834,8 @@
       <c r="A35" t="s">
         <v>634</v>
       </c>
-      <c r="B35" s="4">
-        <f>DATE(YEAR(A35),MONTH(A35),DAY(A35))</f>
+      <c r="B35" s="3">
+        <f t="shared" si="2"/>
         <v>45295</v>
       </c>
       <c r="C35">
@@ -34866,7 +34859,7 @@
         <v>2.35</v>
       </c>
       <c r="I35" t="b">
-        <f>OR(C35=2,F35=2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -34874,8 +34867,8 @@
       <c r="A36" t="s">
         <v>641</v>
       </c>
-      <c r="B36" s="4">
-        <f>DATE(YEAR(A36),MONTH(A36),DAY(A36))</f>
+      <c r="B36" s="3">
+        <f t="shared" si="2"/>
         <v>45298</v>
       </c>
       <c r="C36">
@@ -34899,7 +34892,7 @@
         <v>7</v>
       </c>
       <c r="I36" t="b">
-        <f>OR(C36=2,F36=2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -34907,8 +34900,8 @@
       <c r="A37" t="s">
         <v>652</v>
       </c>
-      <c r="B37" s="4">
-        <f>DATE(YEAR(A37),MONTH(A37),DAY(A37))</f>
+      <c r="B37" s="3">
+        <f t="shared" si="2"/>
         <v>45301</v>
       </c>
       <c r="C37">
@@ -34932,7 +34925,7 @@
         <v>4.5</v>
       </c>
       <c r="I37" t="b">
-        <f>OR(C37=2,F37=2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -34940,8 +34933,8 @@
       <c r="A38" t="s">
         <v>657</v>
       </c>
-      <c r="B38" s="4">
-        <f>DATE(YEAR(A38),MONTH(A38),DAY(A38))</f>
+      <c r="B38" s="3">
+        <f t="shared" si="2"/>
         <v>45304</v>
       </c>
       <c r="C38">
@@ -34965,7 +34958,7 @@
         <v>4.25</v>
       </c>
       <c r="I38" t="b">
-        <f>OR(C38=2,F38=2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -34973,8 +34966,8 @@
       <c r="A39" t="s">
         <v>668</v>
       </c>
-      <c r="B39" s="4">
-        <f>DATE(YEAR(A39),MONTH(A39),DAY(A39))</f>
+      <c r="B39" s="3">
+        <f t="shared" si="2"/>
         <v>45308</v>
       </c>
       <c r="C39">
@@ -34991,14 +34984,14 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="H39">
         <f>LOOKUP(B39,Sheet3!F:F,Sheet3!E:E)</f>
         <v>4</v>
       </c>
       <c r="I39" t="b">
-        <f>OR(C39=2,F39=2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -35006,8 +34999,8 @@
       <c r="A40" t="s">
         <v>674</v>
       </c>
-      <c r="B40" s="4">
-        <f>DATE(YEAR(A40),MONTH(A40),DAY(A40))</f>
+      <c r="B40" s="3">
+        <f t="shared" si="2"/>
         <v>45312</v>
       </c>
       <c r="C40">
@@ -35031,7 +35024,7 @@
         <v>1.65</v>
       </c>
       <c r="I40" t="b">
-        <f>OR(C40=2,F40=2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -35039,8 +35032,8 @@
       <c r="A41" t="s">
         <v>682</v>
       </c>
-      <c r="B41" s="4">
-        <f>DATE(YEAR(A41),MONTH(A41),DAY(A41))</f>
+      <c r="B41" s="3">
+        <f t="shared" si="2"/>
         <v>45315</v>
       </c>
       <c r="C41">
@@ -35064,7 +35057,7 @@
         <v>5</v>
       </c>
       <c r="I41" t="b">
-        <f>OR(C41=2,F41=2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -35072,8 +35065,8 @@
       <c r="A42" t="s">
         <v>691</v>
       </c>
-      <c r="B42" s="4">
-        <f>DATE(YEAR(A42),MONTH(A42),DAY(A42))</f>
+      <c r="B42" s="3">
+        <f t="shared" si="2"/>
         <v>45319</v>
       </c>
       <c r="C42">
@@ -35097,7 +35090,7 @@
         <v>15</v>
       </c>
       <c r="I42" t="b">
-        <f>OR(C42=2,F42=2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -35105,8 +35098,8 @@
       <c r="A43" t="s">
         <v>700</v>
       </c>
-      <c r="B43" s="4">
-        <f>DATE(YEAR(A43),MONTH(A43),DAY(A43))</f>
+      <c r="B43" s="3">
+        <f t="shared" si="2"/>
         <v>45322</v>
       </c>
       <c r="C43">
@@ -35130,7 +35123,7 @@
         <v>7</v>
       </c>
       <c r="I43" t="b">
-        <f>OR(C43=2,F43=2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -35138,8 +35131,8 @@
       <c r="A44" t="s">
         <v>708</v>
       </c>
-      <c r="B44" s="4">
-        <f>DATE(YEAR(A44),MONTH(A44),DAY(A44))</f>
+      <c r="B44" s="3">
+        <f t="shared" si="2"/>
         <v>45326</v>
       </c>
       <c r="C44">
@@ -35163,7 +35156,7 @@
         <v>1.28</v>
       </c>
       <c r="I44" t="b">
-        <f>OR(C44=2,F44=2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -35171,8 +35164,8 @@
       <c r="A45" t="s">
         <v>719</v>
       </c>
-      <c r="B45" s="4">
-        <f>DATE(YEAR(A45),MONTH(A45),DAY(A45))</f>
+      <c r="B45" s="3">
+        <f t="shared" si="2"/>
         <v>45329</v>
       </c>
       <c r="C45">
@@ -35196,7 +35189,7 @@
         <v>11</v>
       </c>
       <c r="I45" t="b">
-        <f>OR(C45=2,F45=2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -35204,8 +35197,8 @@
       <c r="A46" t="s">
         <v>726</v>
       </c>
-      <c r="B46" s="4">
-        <f>DATE(YEAR(A46),MONTH(A46),DAY(A46))</f>
+      <c r="B46" s="3">
+        <f t="shared" si="2"/>
         <v>45334</v>
       </c>
       <c r="C46">
@@ -35229,7 +35222,7 @@
         <v>4.25</v>
       </c>
       <c r="I46" t="b">
-        <f>OR(C46=2,F46=2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -35237,8 +35230,8 @@
       <c r="A47" t="s">
         <v>736</v>
       </c>
-      <c r="B47" s="4">
-        <f>DATE(YEAR(A47),MONTH(A47),DAY(A47))</f>
+      <c r="B47" s="3">
+        <f t="shared" si="2"/>
         <v>45337</v>
       </c>
       <c r="C47">
@@ -35262,7 +35255,7 @@
         <v>85</v>
       </c>
       <c r="I47" t="b">
-        <f>OR(C47=2,F47=2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -35270,8 +35263,8 @@
       <c r="A48" t="s">
         <v>742</v>
       </c>
-      <c r="B48" s="4">
-        <f>DATE(YEAR(A48),MONTH(A48),DAY(A48))</f>
+      <c r="B48" s="3">
+        <f t="shared" si="2"/>
         <v>45340</v>
       </c>
       <c r="C48">
@@ -35295,7 +35288,7 @@
         <v>2.75</v>
       </c>
       <c r="I48" t="b">
-        <f>OR(C48=2,F48=2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -35303,8 +35296,8 @@
       <c r="A49" t="s">
         <v>754</v>
       </c>
-      <c r="B49" s="4">
-        <f>DATE(YEAR(A49),MONTH(A49),DAY(A49))</f>
+      <c r="B49" s="3">
+        <f t="shared" si="2"/>
         <v>45343</v>
       </c>
       <c r="C49">
@@ -35328,7 +35321,7 @@
         <v>1.95</v>
       </c>
       <c r="I49" t="b">
-        <f>OR(C49=2,F49=2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -35336,8 +35329,8 @@
       <c r="A50" t="s">
         <v>762</v>
       </c>
-      <c r="B50" s="4">
-        <f>DATE(YEAR(A50),MONTH(A50),DAY(A50))</f>
+      <c r="B50" s="3">
+        <f t="shared" si="2"/>
         <v>45347</v>
       </c>
       <c r="C50">
@@ -35361,7 +35354,7 @@
         <v>4.5</v>
       </c>
       <c r="I50" t="b">
-        <f>OR(C50=2,F50=2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -35369,8 +35362,8 @@
       <c r="A51" t="s">
         <v>773</v>
       </c>
-      <c r="B51" s="4">
-        <f>DATE(YEAR(A51),MONTH(A51),DAY(A51))</f>
+      <c r="B51" s="3">
+        <f t="shared" si="2"/>
         <v>45350</v>
       </c>
       <c r="C51">
@@ -35394,7 +35387,7 @@
         <v>5.5</v>
       </c>
       <c r="I51" t="b">
-        <f>OR(C51=2,F51=2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -35416,8 +35409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35472,8 +35465,8 @@
       <c r="E2">
         <v>3.75</v>
       </c>
-      <c r="F2" s="4">
-        <f>DATE(YEAR(A2),MONTH(A2), DAY(A2))</f>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F33" si="0">DATE(YEAR(A2),MONTH(A2), DAY(A2))</f>
         <v>45179</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -35508,19 +35501,17 @@
       <c r="E3">
         <v>8.5</v>
       </c>
-      <c r="F3" s="4">
-        <f>DATE(YEAR(A3),MONTH(A3), DAY(A3))</f>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
         <v>45182</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3">
+      <c r="M3">
         <v>7</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
+      <c r="O3">
         <v>7</v>
       </c>
     </row>
@@ -35540,21 +35531,20 @@
       <c r="E4">
         <v>7</v>
       </c>
-      <c r="F4" s="4">
-        <f>DATE(YEAR(A4),MONTH(A4), DAY(A4))</f>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
         <v>45186</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
+      <c r="O4">
         <v>8</v>
       </c>
     </row>
@@ -35574,21 +35564,20 @@
       <c r="E5">
         <v>1.75</v>
       </c>
-      <c r="F5" s="4">
-        <f>DATE(YEAR(A5),MONTH(A5), DAY(A5))</f>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
         <v>45189</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3">
+      <c r="O5">
         <v>8</v>
       </c>
     </row>
@@ -35608,21 +35597,20 @@
       <c r="E6">
         <v>22</v>
       </c>
-      <c r="F6" s="4">
-        <f>DATE(YEAR(A6),MONTH(A6), DAY(A6))</f>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
         <v>45193</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>2</v>
       </c>
     </row>
@@ -35642,21 +35630,20 @@
       <c r="E7">
         <v>4.5</v>
       </c>
-      <c r="F7" s="4">
-        <f>DATE(YEAR(A7),MONTH(A7), DAY(A7))</f>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
         <v>45196</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3">
+      <c r="O7">
         <v>6</v>
       </c>
     </row>
@@ -35676,19 +35663,17 @@
       <c r="E8">
         <v>3.2</v>
       </c>
-      <c r="F8" s="4">
-        <f>DATE(YEAR(A8),MONTH(A8), DAY(A8))</f>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
         <v>45200</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3">
+      <c r="O8">
         <v>1</v>
       </c>
     </row>
@@ -35708,21 +35693,20 @@
       <c r="E9">
         <v>22</v>
       </c>
-      <c r="F9" s="4">
-        <f>DATE(YEAR(A9),MONTH(A9), DAY(A9))</f>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
         <v>45203</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3">
+      <c r="O9">
         <v>3</v>
       </c>
     </row>
@@ -35742,19 +35726,17 @@
       <c r="E10">
         <v>25</v>
       </c>
-      <c r="F10" s="4">
-        <f>DATE(YEAR(A10),MONTH(A10), DAY(A10))</f>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
         <v>45210</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
+      <c r="O10">
         <v>2</v>
       </c>
     </row>
@@ -35774,19 +35756,17 @@
       <c r="E11">
         <v>6.5</v>
       </c>
-      <c r="F11" s="4">
-        <f>DATE(YEAR(A11),MONTH(A11), DAY(A11))</f>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
         <v>45214</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
+      <c r="O11">
         <v>1</v>
       </c>
     </row>
@@ -35806,19 +35786,17 @@
       <c r="E12">
         <v>40</v>
       </c>
-      <c r="F12" s="4">
-        <f>DATE(YEAR(A12),MONTH(A12), DAY(A12))</f>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
         <v>45217</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
+      <c r="O12">
         <v>1</v>
       </c>
     </row>
@@ -35838,19 +35816,17 @@
       <c r="E13">
         <v>45</v>
       </c>
-      <c r="F13" s="4">
-        <f>DATE(YEAR(A13),MONTH(A13), DAY(A13))</f>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
         <v>45217</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
+      <c r="O13">
         <v>1</v>
       </c>
     </row>
@@ -35870,19 +35846,17 @@
       <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14" s="4">
-        <f>DATE(YEAR(A14),MONTH(A14), DAY(A14))</f>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
         <v>45221</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
+      <c r="O14">
         <v>8</v>
       </c>
     </row>
@@ -35902,21 +35876,20 @@
       <c r="E15">
         <v>60</v>
       </c>
-      <c r="F15" s="4">
-        <f>DATE(YEAR(A15),MONTH(A15), DAY(A15))</f>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
         <v>45224</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3">
+      <c r="O15">
         <v>2</v>
       </c>
     </row>
@@ -35936,19 +35909,17 @@
       <c r="E16">
         <v>3.75</v>
       </c>
-      <c r="F16" s="4">
-        <f>DATE(YEAR(A16),MONTH(A16), DAY(A16))</f>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
         <v>45228</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3">
+      <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3">
+      <c r="O16">
         <v>1</v>
       </c>
     </row>
@@ -35968,17 +35939,13 @@
       <c r="E17">
         <v>12</v>
       </c>
-      <c r="F17" s="4">
-        <f>DATE(YEAR(A17),MONTH(A17), DAY(A17))</f>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
         <v>45231</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -35996,21 +35963,20 @@
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="4">
-        <f>DATE(YEAR(A18),MONTH(A18), DAY(A18))</f>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
         <v>45235</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18">
         <v>26</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18">
         <v>25</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3">
+      <c r="O18">
         <v>51</v>
       </c>
     </row>
@@ -36030,8 +35996,8 @@
       <c r="E19">
         <v>8</v>
       </c>
-      <c r="F19" s="4">
-        <f>DATE(YEAR(A19),MONTH(A19), DAY(A19))</f>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
         <v>45238</v>
       </c>
     </row>
@@ -36051,8 +36017,8 @@
       <c r="E20">
         <v>2.6</v>
       </c>
-      <c r="F20" s="4">
-        <f>DATE(YEAR(A20),MONTH(A20), DAY(A20))</f>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
         <v>45241</v>
       </c>
     </row>
@@ -36072,8 +36038,8 @@
       <c r="E21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F21" s="4">
-        <f>DATE(YEAR(A21),MONTH(A21), DAY(A21))</f>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
         <v>45245</v>
       </c>
     </row>
@@ -36093,8 +36059,8 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="4">
-        <f>DATE(YEAR(A22),MONTH(A22), DAY(A22))</f>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
@@ -36114,8 +36080,8 @@
       <c r="E23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F23" s="4">
-        <f>DATE(YEAR(A23),MONTH(A23), DAY(A23))</f>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
         <v>45252</v>
       </c>
     </row>
@@ -36135,8 +36101,8 @@
       <c r="E24">
         <v>15</v>
       </c>
-      <c r="F24" s="4">
-        <f>DATE(YEAR(A24),MONTH(A24), DAY(A24))</f>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
         <v>45256</v>
       </c>
     </row>
@@ -36156,8 +36122,8 @@
       <c r="E25">
         <v>9</v>
       </c>
-      <c r="F25" s="4">
-        <f>DATE(YEAR(A25),MONTH(A25), DAY(A25))</f>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
         <v>45259</v>
       </c>
     </row>
@@ -36177,8 +36143,8 @@
       <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" s="4">
-        <f>DATE(YEAR(A26),MONTH(A26), DAY(A26))</f>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
         <v>45263</v>
       </c>
     </row>
@@ -36198,8 +36164,8 @@
       <c r="E27">
         <v>55</v>
       </c>
-      <c r="F27" s="4">
-        <f>DATE(YEAR(A27),MONTH(A27), DAY(A27))</f>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
         <v>45266</v>
       </c>
     </row>
@@ -36219,8 +36185,8 @@
       <c r="E28">
         <v>5.5</v>
       </c>
-      <c r="F28" s="4">
-        <f>DATE(YEAR(A28),MONTH(A28), DAY(A28))</f>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
         <v>45270</v>
       </c>
     </row>
@@ -36240,8 +36206,8 @@
       <c r="E29">
         <v>4</v>
       </c>
-      <c r="F29" s="4">
-        <f>DATE(YEAR(A29),MONTH(A29), DAY(A29))</f>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
         <v>45273</v>
       </c>
     </row>
@@ -36261,8 +36227,8 @@
       <c r="E30">
         <v>5.5</v>
       </c>
-      <c r="F30" s="4">
-        <f>DATE(YEAR(A30),MONTH(A30), DAY(A30))</f>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
         <v>45277</v>
       </c>
     </row>
@@ -36282,8 +36248,8 @@
       <c r="E31">
         <v>4.5</v>
       </c>
-      <c r="F31" s="4">
-        <f>DATE(YEAR(A31),MONTH(A31), DAY(A31))</f>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
         <v>45280</v>
       </c>
     </row>
@@ -36303,8 +36269,8 @@
       <c r="E32">
         <v>1.9</v>
       </c>
-      <c r="F32" s="4">
-        <f>DATE(YEAR(A32),MONTH(A32), DAY(A32))</f>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
         <v>45283</v>
       </c>
     </row>
@@ -36324,8 +36290,8 @@
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="F33" s="4">
-        <f>DATE(YEAR(A33),MONTH(A33), DAY(A33))</f>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
         <v>45286</v>
       </c>
     </row>
@@ -36345,8 +36311,8 @@
       <c r="E34">
         <v>18</v>
       </c>
-      <c r="F34" s="4">
-        <f>DATE(YEAR(A34),MONTH(A34), DAY(A34))</f>
+      <c r="F34" s="3">
+        <f t="shared" ref="F34:F52" si="1">DATE(YEAR(A34),MONTH(A34), DAY(A34))</f>
         <v>45289</v>
       </c>
     </row>
@@ -36366,8 +36332,8 @@
       <c r="E35">
         <v>3.25</v>
       </c>
-      <c r="F35" s="4">
-        <f>DATE(YEAR(A35),MONTH(A35), DAY(A35))</f>
+      <c r="F35" s="3">
+        <f t="shared" si="1"/>
         <v>45292</v>
       </c>
     </row>
@@ -36387,8 +36353,8 @@
       <c r="E36">
         <v>2.35</v>
       </c>
-      <c r="F36" s="4">
-        <f>DATE(YEAR(A36),MONTH(A36), DAY(A36))</f>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
         <v>45295</v>
       </c>
     </row>
@@ -36408,8 +36374,8 @@
       <c r="E37">
         <v>7</v>
       </c>
-      <c r="F37" s="4">
-        <f>DATE(YEAR(A37),MONTH(A37), DAY(A37))</f>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
         <v>45298</v>
       </c>
     </row>
@@ -36429,8 +36395,8 @@
       <c r="E38">
         <v>4.5</v>
       </c>
-      <c r="F38" s="4">
-        <f>DATE(YEAR(A38),MONTH(A38), DAY(A38))</f>
+      <c r="F38" s="3">
+        <f t="shared" si="1"/>
         <v>45301</v>
       </c>
     </row>
@@ -36450,8 +36416,8 @@
       <c r="E39">
         <v>4.25</v>
       </c>
-      <c r="F39" s="4">
-        <f>DATE(YEAR(A39),MONTH(A39), DAY(A39))</f>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
         <v>45304</v>
       </c>
     </row>
@@ -36471,8 +36437,8 @@
       <c r="E40">
         <v>4</v>
       </c>
-      <c r="F40" s="4">
-        <f>DATE(YEAR(A40),MONTH(A40), DAY(A40))</f>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
         <v>45308</v>
       </c>
     </row>
@@ -36492,8 +36458,8 @@
       <c r="E41">
         <v>1.65</v>
       </c>
-      <c r="F41" s="4">
-        <f>DATE(YEAR(A41),MONTH(A41), DAY(A41))</f>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
         <v>45312</v>
       </c>
     </row>
@@ -36513,8 +36479,8 @@
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" s="4">
-        <f>DATE(YEAR(A42),MONTH(A42), DAY(A42))</f>
+      <c r="F42" s="3">
+        <f t="shared" si="1"/>
         <v>45315</v>
       </c>
     </row>
@@ -36534,8 +36500,8 @@
       <c r="E43">
         <v>15</v>
       </c>
-      <c r="F43" s="4">
-        <f>DATE(YEAR(A43),MONTH(A43), DAY(A43))</f>
+      <c r="F43" s="3">
+        <f t="shared" si="1"/>
         <v>45319</v>
       </c>
     </row>
@@ -36555,8 +36521,8 @@
       <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" s="4">
-        <f>DATE(YEAR(A44),MONTH(A44), DAY(A44))</f>
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
         <v>45322</v>
       </c>
     </row>
@@ -36576,8 +36542,8 @@
       <c r="E45">
         <v>1.28</v>
       </c>
-      <c r="F45" s="4">
-        <f>DATE(YEAR(A45),MONTH(A45), DAY(A45))</f>
+      <c r="F45" s="3">
+        <f t="shared" si="1"/>
         <v>45326</v>
       </c>
     </row>
@@ -36597,8 +36563,8 @@
       <c r="E46">
         <v>11</v>
       </c>
-      <c r="F46" s="4">
-        <f>DATE(YEAR(A46),MONTH(A46), DAY(A46))</f>
+      <c r="F46" s="3">
+        <f t="shared" si="1"/>
         <v>45329</v>
       </c>
     </row>
@@ -36618,8 +36584,8 @@
       <c r="E47">
         <v>4.25</v>
       </c>
-      <c r="F47" s="4">
-        <f>DATE(YEAR(A47),MONTH(A47), DAY(A47))</f>
+      <c r="F47" s="3">
+        <f t="shared" si="1"/>
         <v>45334</v>
       </c>
     </row>
@@ -36639,8 +36605,8 @@
       <c r="E48">
         <v>85</v>
       </c>
-      <c r="F48" s="4">
-        <f>DATE(YEAR(A48),MONTH(A48), DAY(A48))</f>
+      <c r="F48" s="3">
+        <f t="shared" si="1"/>
         <v>45337</v>
       </c>
     </row>
@@ -36660,8 +36626,8 @@
       <c r="E49">
         <v>2.75</v>
       </c>
-      <c r="F49" s="4">
-        <f>DATE(YEAR(A49),MONTH(A49), DAY(A49))</f>
+      <c r="F49" s="3">
+        <f t="shared" si="1"/>
         <v>45340</v>
       </c>
     </row>
@@ -36681,8 +36647,8 @@
       <c r="E50">
         <v>1.95</v>
       </c>
-      <c r="F50" s="4">
-        <f>DATE(YEAR(A50),MONTH(A50), DAY(A50))</f>
+      <c r="F50" s="3">
+        <f t="shared" si="1"/>
         <v>45343</v>
       </c>
     </row>
@@ -36702,8 +36668,8 @@
       <c r="E51">
         <v>4.5</v>
       </c>
-      <c r="F51" s="4">
-        <f>DATE(YEAR(A51),MONTH(A51), DAY(A51))</f>
+      <c r="F51" s="3">
+        <f t="shared" si="1"/>
         <v>45347</v>
       </c>
     </row>
@@ -36723,8 +36689,8 @@
       <c r="E52">
         <v>5.5</v>
       </c>
-      <c r="F52" s="4">
-        <f>DATE(YEAR(A52),MONTH(A52), DAY(A52))</f>
+      <c r="F52" s="3">
+        <f t="shared" si="1"/>
         <v>45350</v>
       </c>
     </row>
@@ -36741,7 +36707,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36796,8 +36762,8 @@
       <c r="E2">
         <v>1.4</v>
       </c>
-      <c r="F2" s="4">
-        <f>DATE(YEAR(A2),MONTH(A2), DAY(A2))</f>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F33" si="0">DATE(YEAR(A2),MONTH(A2), DAY(A2))</f>
         <v>45179</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -36832,19 +36798,17 @@
       <c r="E3">
         <v>22</v>
       </c>
-      <c r="F3" s="4">
-        <f>DATE(YEAR(A3),MONTH(A3), DAY(A3))</f>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
         <v>45182</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3">
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
+      <c r="O3">
         <v>3</v>
       </c>
     </row>
@@ -36864,21 +36828,20 @@
       <c r="E4">
         <v>4.75</v>
       </c>
-      <c r="F4" s="4">
-        <f>DATE(YEAR(A4),MONTH(A4), DAY(A4))</f>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
         <v>45186</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>4</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
+      <c r="O4">
         <v>6</v>
       </c>
     </row>
@@ -36898,21 +36861,20 @@
       <c r="E5">
         <v>4.25</v>
       </c>
-      <c r="F5" s="4">
-        <f>DATE(YEAR(A5),MONTH(A5), DAY(A5))</f>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
         <v>45189</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3">
+      <c r="O5">
         <v>9</v>
       </c>
     </row>
@@ -36932,19 +36894,17 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="4">
-        <f>DATE(YEAR(A6),MONTH(A6), DAY(A6))</f>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
         <v>45193</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>1</v>
       </c>
     </row>
@@ -36964,19 +36924,17 @@
       <c r="E7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F7" s="4">
-        <f>DATE(YEAR(A7),MONTH(A7), DAY(A7))</f>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
         <v>45196</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3">
+      <c r="O7">
         <v>2</v>
       </c>
     </row>
@@ -36996,21 +36954,20 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="4">
-        <f>DATE(YEAR(A8),MONTH(A8), DAY(A8))</f>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
         <v>45200</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3">
+      <c r="O8">
         <v>3</v>
       </c>
     </row>
@@ -37030,21 +36987,20 @@
       <c r="E9">
         <v>1.7</v>
       </c>
-      <c r="F9" s="4">
-        <f>DATE(YEAR(A9),MONTH(A9), DAY(A9))</f>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
         <v>45203</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3">
+      <c r="O9">
         <v>3</v>
       </c>
     </row>
@@ -37064,19 +37020,17 @@
       <c r="E10">
         <v>35</v>
       </c>
-      <c r="F10" s="4">
-        <f>DATE(YEAR(A10),MONTH(A10), DAY(A10))</f>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
         <v>45210</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
+      <c r="O10">
         <v>2</v>
       </c>
     </row>
@@ -37096,19 +37050,17 @@
       <c r="E11">
         <v>6.5</v>
       </c>
-      <c r="F11" s="4">
-        <f>DATE(YEAR(A11),MONTH(A11), DAY(A11))</f>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
         <v>45214</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
+      <c r="O11">
         <v>2</v>
       </c>
     </row>
@@ -37128,21 +37080,20 @@
       <c r="E12">
         <v>12</v>
       </c>
-      <c r="F12" s="4">
-        <f>DATE(YEAR(A12),MONTH(A12), DAY(A12))</f>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
         <v>45217</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>9</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12">
         <v>7</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
+      <c r="O12">
         <v>16</v>
       </c>
     </row>
@@ -37162,19 +37113,17 @@
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" s="4">
-        <f>DATE(YEAR(A13),MONTH(A13), DAY(A13))</f>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
         <v>45221</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
+      <c r="O13">
         <v>1</v>
       </c>
     </row>
@@ -37194,21 +37143,20 @@
       <c r="E14">
         <v>14</v>
       </c>
-      <c r="F14" s="4">
-        <f>DATE(YEAR(A14),MONTH(A14), DAY(A14))</f>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
         <v>45224</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14">
         <v>2</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
+      <c r="O14">
         <v>3</v>
       </c>
     </row>
@@ -37228,17 +37176,13 @@
       <c r="E15">
         <v>1.95</v>
       </c>
-      <c r="F15" s="4">
-        <f>DATE(YEAR(A15),MONTH(A15), DAY(A15))</f>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
         <v>45228</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -37256,21 +37200,20 @@
       <c r="E16">
         <v>4.75</v>
       </c>
-      <c r="F16" s="4">
-        <f>DATE(YEAR(A16),MONTH(A16), DAY(A16))</f>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
         <v>45231</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16">
         <v>26</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16">
         <v>25</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3">
+      <c r="O16">
         <v>51</v>
       </c>
     </row>
@@ -37290,8 +37233,8 @@
       <c r="E17">
         <v>6.5</v>
       </c>
-      <c r="F17" s="4">
-        <f>DATE(YEAR(A17),MONTH(A17), DAY(A17))</f>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
         <v>45235</v>
       </c>
     </row>
@@ -37311,8 +37254,8 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="4">
-        <f>DATE(YEAR(A18),MONTH(A18), DAY(A18))</f>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
         <v>45238</v>
       </c>
     </row>
@@ -37332,8 +37275,8 @@
       <c r="E19">
         <v>6.5</v>
       </c>
-      <c r="F19" s="4">
-        <f>DATE(YEAR(A19),MONTH(A19), DAY(A19))</f>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
         <v>45238</v>
       </c>
     </row>
@@ -37353,8 +37296,8 @@
       <c r="E20">
         <v>2.75</v>
       </c>
-      <c r="F20" s="4">
-        <f>DATE(YEAR(A20),MONTH(A20), DAY(A20))</f>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
         <v>45241</v>
       </c>
     </row>
@@ -37374,8 +37317,8 @@
       <c r="E21">
         <v>2.25</v>
       </c>
-      <c r="F21" s="4">
-        <f>DATE(YEAR(A21),MONTH(A21), DAY(A21))</f>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
         <v>45245</v>
       </c>
     </row>
@@ -37395,8 +37338,8 @@
       <c r="E22">
         <v>15</v>
       </c>
-      <c r="F22" s="4">
-        <f>DATE(YEAR(A22),MONTH(A22), DAY(A22))</f>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
@@ -37416,8 +37359,8 @@
       <c r="E23">
         <v>5</v>
       </c>
-      <c r="F23" s="4">
-        <f>DATE(YEAR(A23),MONTH(A23), DAY(A23))</f>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
         <v>45252</v>
       </c>
     </row>
@@ -37437,8 +37380,8 @@
       <c r="E24">
         <v>14</v>
       </c>
-      <c r="F24" s="4">
-        <f>DATE(YEAR(A24),MONTH(A24), DAY(A24))</f>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
         <v>45256</v>
       </c>
     </row>
@@ -37458,8 +37401,8 @@
       <c r="E25">
         <v>45</v>
       </c>
-      <c r="F25" s="4">
-        <f>DATE(YEAR(A25),MONTH(A25), DAY(A25))</f>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
         <v>45259</v>
       </c>
     </row>
@@ -37479,8 +37422,8 @@
       <c r="E26">
         <v>1.75</v>
       </c>
-      <c r="F26" s="4">
-        <f>DATE(YEAR(A26),MONTH(A26), DAY(A26))</f>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
         <v>45263</v>
       </c>
     </row>
@@ -37500,8 +37443,8 @@
       <c r="E27">
         <v>8.5</v>
       </c>
-      <c r="F27" s="4">
-        <f>DATE(YEAR(A27),MONTH(A27), DAY(A27))</f>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
         <v>45266</v>
       </c>
     </row>
@@ -37521,8 +37464,8 @@
       <c r="E28">
         <v>6.5</v>
       </c>
-      <c r="F28" s="4">
-        <f>DATE(YEAR(A28),MONTH(A28), DAY(A28))</f>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
         <v>45270</v>
       </c>
     </row>
@@ -37542,8 +37485,8 @@
       <c r="E29">
         <v>7.5</v>
       </c>
-      <c r="F29" s="4">
-        <f>DATE(YEAR(A29),MONTH(A29), DAY(A29))</f>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
         <v>45273</v>
       </c>
     </row>
@@ -37563,8 +37506,8 @@
       <c r="E30">
         <v>2.25</v>
       </c>
-      <c r="F30" s="4">
-        <f>DATE(YEAR(A30),MONTH(A30), DAY(A30))</f>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
         <v>45277</v>
       </c>
     </row>
@@ -37584,8 +37527,8 @@
       <c r="E31">
         <v>4.25</v>
       </c>
-      <c r="F31" s="4">
-        <f>DATE(YEAR(A31),MONTH(A31), DAY(A31))</f>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
         <v>45280</v>
       </c>
     </row>
@@ -37605,8 +37548,8 @@
       <c r="E32">
         <v>2.5</v>
       </c>
-      <c r="F32" s="4">
-        <f>DATE(YEAR(A32),MONTH(A32), DAY(A32))</f>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
         <v>45283</v>
       </c>
     </row>
@@ -37626,8 +37569,8 @@
       <c r="E33">
         <v>20</v>
       </c>
-      <c r="F33" s="4">
-        <f>DATE(YEAR(A33),MONTH(A33), DAY(A33))</f>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
         <v>45286</v>
       </c>
     </row>
@@ -37647,8 +37590,8 @@
       <c r="E34">
         <v>5.5</v>
       </c>
-      <c r="F34" s="4">
-        <f>DATE(YEAR(A34),MONTH(A34), DAY(A34))</f>
+      <c r="F34" s="3">
+        <f t="shared" ref="F34:F52" si="1">DATE(YEAR(A34),MONTH(A34), DAY(A34))</f>
         <v>45289</v>
       </c>
     </row>
@@ -37668,8 +37611,8 @@
       <c r="E35">
         <v>6.5</v>
       </c>
-      <c r="F35" s="4">
-        <f>DATE(YEAR(A35),MONTH(A35), DAY(A35))</f>
+      <c r="F35" s="3">
+        <f t="shared" si="1"/>
         <v>45292</v>
       </c>
     </row>
@@ -37689,8 +37632,8 @@
       <c r="E36">
         <v>2.6</v>
       </c>
-      <c r="F36" s="4">
-        <f>DATE(YEAR(A36),MONTH(A36), DAY(A36))</f>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
         <v>45295</v>
       </c>
     </row>
@@ -37710,8 +37653,8 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="4">
-        <f>DATE(YEAR(A37),MONTH(A37), DAY(A37))</f>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
         <v>45298</v>
       </c>
     </row>
@@ -37731,8 +37674,8 @@
       <c r="E38">
         <v>15</v>
       </c>
-      <c r="F38" s="4">
-        <f>DATE(YEAR(A38),MONTH(A38), DAY(A38))</f>
+      <c r="F38" s="3">
+        <f t="shared" si="1"/>
         <v>45301</v>
       </c>
     </row>
@@ -37752,8 +37695,8 @@
       <c r="E39">
         <v>4.25</v>
       </c>
-      <c r="F39" s="4">
-        <f>DATE(YEAR(A39),MONTH(A39), DAY(A39))</f>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
         <v>45304</v>
       </c>
     </row>
@@ -37773,8 +37716,8 @@
       <c r="E40">
         <v>4.75</v>
       </c>
-      <c r="F40" s="4">
-        <f>DATE(YEAR(A40),MONTH(A40), DAY(A40))</f>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
         <v>45308</v>
       </c>
     </row>
@@ -37794,8 +37737,8 @@
       <c r="E41">
         <v>1.65</v>
       </c>
-      <c r="F41" s="4">
-        <f>DATE(YEAR(A41),MONTH(A41), DAY(A41))</f>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
         <v>45312</v>
       </c>
     </row>
@@ -37815,8 +37758,8 @@
       <c r="E42">
         <v>4</v>
       </c>
-      <c r="F42" s="4">
-        <f>DATE(YEAR(A42),MONTH(A42), DAY(A42))</f>
+      <c r="F42" s="3">
+        <f t="shared" si="1"/>
         <v>45315</v>
       </c>
     </row>
@@ -37836,8 +37779,8 @@
       <c r="E43">
         <v>1.4</v>
       </c>
-      <c r="F43" s="4">
-        <f>DATE(YEAR(A43),MONTH(A43), DAY(A43))</f>
+      <c r="F43" s="3">
+        <f t="shared" si="1"/>
         <v>45319</v>
       </c>
     </row>
@@ -37857,8 +37800,8 @@
       <c r="E44">
         <v>5.5</v>
       </c>
-      <c r="F44" s="4">
-        <f>DATE(YEAR(A44),MONTH(A44), DAY(A44))</f>
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
         <v>45322</v>
       </c>
     </row>
@@ -37878,8 +37821,8 @@
       <c r="E45">
         <v>2.25</v>
       </c>
-      <c r="F45" s="4">
-        <f>DATE(YEAR(A45),MONTH(A45), DAY(A45))</f>
+      <c r="F45" s="3">
+        <f t="shared" si="1"/>
         <v>45326</v>
       </c>
     </row>
@@ -37899,8 +37842,8 @@
       <c r="E46">
         <v>10</v>
       </c>
-      <c r="F46" s="4">
-        <f>DATE(YEAR(A46),MONTH(A46), DAY(A46))</f>
+      <c r="F46" s="3">
+        <f t="shared" si="1"/>
         <v>45329</v>
       </c>
     </row>
@@ -37920,8 +37863,8 @@
       <c r="E47">
         <v>1.5</v>
       </c>
-      <c r="F47" s="4">
-        <f>DATE(YEAR(A47),MONTH(A47), DAY(A47))</f>
+      <c r="F47" s="3">
+        <f t="shared" si="1"/>
         <v>45334</v>
       </c>
     </row>
@@ -37941,8 +37884,8 @@
       <c r="E48">
         <v>4.25</v>
       </c>
-      <c r="F48" s="4">
-        <f>DATE(YEAR(A48),MONTH(A48), DAY(A48))</f>
+      <c r="F48" s="3">
+        <f t="shared" si="1"/>
         <v>45337</v>
       </c>
     </row>
@@ -37962,8 +37905,8 @@
       <c r="E49">
         <v>6</v>
       </c>
-      <c r="F49" s="4">
-        <f>DATE(YEAR(A49),MONTH(A49), DAY(A49))</f>
+      <c r="F49" s="3">
+        <f t="shared" si="1"/>
         <v>45340</v>
       </c>
     </row>
@@ -37983,8 +37926,8 @@
       <c r="E50">
         <v>4.25</v>
       </c>
-      <c r="F50" s="4">
-        <f>DATE(YEAR(A50),MONTH(A50), DAY(A50))</f>
+      <c r="F50" s="3">
+        <f t="shared" si="1"/>
         <v>45343</v>
       </c>
     </row>
@@ -38004,8 +37947,8 @@
       <c r="E51">
         <v>3.75</v>
       </c>
-      <c r="F51" s="4">
-        <f>DATE(YEAR(A51),MONTH(A51), DAY(A51))</f>
+      <c r="F51" s="3">
+        <f t="shared" si="1"/>
         <v>45347</v>
       </c>
     </row>
@@ -38025,8 +37968,8 @@
       <c r="E52">
         <v>1.75</v>
       </c>
-      <c r="F52" s="4">
-        <f>DATE(YEAR(A52),MONTH(A52), DAY(A52))</f>
+      <c r="F52" s="3">
+        <f t="shared" si="1"/>
         <v>45350</v>
       </c>
     </row>

--- a/race_results_2023-2024.xlsx
+++ b/race_results_2023-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryLaw\Documents\GitHub\terrysclaw\download-racing-result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7F963-74D6-43C8-85B7-FA2761F923FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C3118-CB45-43D0-BD9A-564A83B8DFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="405" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$F$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$F$2:$F$52</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$2:$C$52</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$D$2:$D$52</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$2:$B$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7045" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6992" uniqueCount="870">
   <si>
     <t>Date</t>
   </si>
@@ -2703,18 +2703,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3965,13 +3954,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4043,13 +4032,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -4211,7 +4200,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Terry Law" refreshedDate="45351.539039814816" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="52" xr:uid="{9171148D-7A6C-49A9-BC4A-F670556A8D5B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:H1048576" sheet="Sheet2"/>
+    <worksheetSource ref="B1:E1048576" sheet="Sheet2"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Date" numFmtId="0">
@@ -5276,7 +5265,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBA4C5CE-DC11-495B-8C11-73BAF9ACEAD1}" name="樞紐分析表8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="練馬師王編號">
-  <location ref="Q1:S17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="M1:O17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -5387,7 +5376,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC623B73-E176-4D78-9380-F6CDA4D1068E}" name="樞紐分析表7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="騎師王編號">
-  <location ref="M1:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="I1:K12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -33443,461 +33432,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>780</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>865</v>
+      </c>
+      <c r="K1" t="s">
+        <v>868</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>780</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>866</v>
       </c>
       <c r="N1" t="s">
         <v>865</v>
       </c>
       <c r="O1" t="s">
-        <v>868</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="R1" t="s">
-        <v>865</v>
-      </c>
-      <c r="S1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3">
-        <f t="shared" ref="B2:B33" si="0">DATE(YEAR(A2),MONTH(A2),DAY(A2))</f>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>45179</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>839</v>
       </c>
-      <c r="E2">
-        <f>LOOKUP(B2,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>1.4</v>
-      </c>
-      <c r="F2">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
         <v>852</v>
       </c>
-      <c r="H2">
-        <f>LOOKUP(B2,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>3.75</v>
-      </c>
-      <c r="I2" t="b">
-        <f t="shared" ref="I2:I33" si="1">OR(C2=2,F2=2)</f>
+      <c r="I2" s="2">
         <v>1</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>36</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>18</v>
-      </c>
-      <c r="S2">
         <v>54.230000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="3">
-        <f t="shared" si="0"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>45182</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>840</v>
       </c>
-      <c r="E3">
-        <f>LOOKUP(B3,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>22</v>
-      </c>
-      <c r="F3">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" t="s">
         <v>853</v>
       </c>
-      <c r="H3">
-        <f>LOOKUP(B3,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>8.5</v>
-      </c>
-      <c r="I3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>70.25</v>
       </c>
       <c r="M3" s="2">
         <v>2</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O3">
-        <v>70.25</v>
-      </c>
-      <c r="Q3" s="2">
+        <v>49.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45186</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="R3">
-        <v>11</v>
-      </c>
-      <c r="S3">
-        <v>49.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>45186</v>
-      </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>841</v>
-      </c>
-      <c r="E4">
-        <f>LOOKUP(B4,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>4.75</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" t="s">
         <v>853</v>
       </c>
-      <c r="H4">
-        <f>LOOKUP(B4,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>7</v>
-      </c>
-      <c r="I4" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
       </c>
       <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>841</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>854</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="O4">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <v>7</v>
-      </c>
-      <c r="S4">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>45189</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>841</v>
-      </c>
-      <c r="E5">
-        <f>LOOKUP(B5,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>4.25</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>854</v>
-      </c>
-      <c r="H5">
-        <f>LOOKUP(B5,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>1.75</v>
-      </c>
-      <c r="I5" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="K5">
+        <v>47.5</v>
       </c>
       <c r="M5" s="2">
         <v>4</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45193</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>853</v>
+      </c>
+      <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="O5">
-        <v>47.5</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="3">
-        <f t="shared" si="0"/>
-        <v>45193</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>842</v>
-      </c>
-      <c r="E6">
-        <f>LOOKUP(B6,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>853</v>
-      </c>
-      <c r="H6">
-        <f>LOOKUP(B6,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>22</v>
-      </c>
-      <c r="I6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="K6">
+        <v>45</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6">
         <v>35.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" si="0"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>45196</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>839</v>
       </c>
-      <c r="E7">
-        <f>LOOKUP(B7,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F7">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="E7" t="s">
         <v>854</v>
       </c>
-      <c r="H7">
-        <f>LOOKUP(B7,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>4.5</v>
-      </c>
-      <c r="I7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>37</v>
       </c>
       <c r="M7" s="2">
         <v>6</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>6</v>
-      </c>
-      <c r="R7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45200</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>843</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>45200</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>843</v>
-      </c>
-      <c r="E8">
-        <f>LOOKUP(B8,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>6</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="s">
+        <v>853</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>853</v>
-      </c>
-      <c r="H8">
-        <f>LOOKUP(B8,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>3.2</v>
-      </c>
-      <c r="I8" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="K8">
+        <v>20</v>
       </c>
       <c r="M8" s="2">
         <v>7</v>
       </c>
       <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45203</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="O8">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2">
+      <c r="C9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>45203</v>
-      </c>
-      <c r="C9">
+      <c r="E9" t="s">
+        <v>855</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>839</v>
-      </c>
-      <c r="E9">
-        <f>LOOKUP(B9,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>1.7</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>855</v>
-      </c>
-      <c r="H9">
-        <f>LOOKUP(B9,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>22</v>
-      </c>
-      <c r="I9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="K9">
+        <v>35</v>
       </c>
       <c r="M9" s="2">
         <v>9</v>
@@ -33906,49 +33765,33 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45210</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="R9">
+      <c r="C10" t="s">
+        <v>844</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>852</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="S9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>45210</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>844</v>
-      </c>
-      <c r="E10">
-        <f>LOOKUP(B10,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>35</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>852</v>
-      </c>
-      <c r="H10">
-        <f>LOOKUP(B10,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>25</v>
-      </c>
-      <c r="I10" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="K10">
+        <v>45</v>
       </c>
       <c r="M10" s="2">
         <v>10</v>
@@ -33957,1449 +33800,776 @@
         <v>1</v>
       </c>
       <c r="O10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45214</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>841</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>856</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="M11" s="2">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>45217</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>845</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>857</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>365.75</v>
+      </c>
+      <c r="M12" s="2">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>45221</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>841</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>853</v>
+      </c>
+      <c r="M13" s="2">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>45224</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>846</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>858</v>
+      </c>
+      <c r="M14" s="2">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>45</v>
       </c>
-      <c r="Q10" s="2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>45228</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>839</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>859</v>
+      </c>
+      <c r="M15" s="2">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>844</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>860</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>45235</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>844</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>861</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="N17">
+        <v>50</v>
+      </c>
+      <c r="O17">
+        <v>549.68000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>45238</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>847</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>45241</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>839</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>45245</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>839</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>45249</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>846</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>45252</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>843</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>45256</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>849</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>45259</v>
+      </c>
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="R10">
+      <c r="C24" t="s">
+        <v>850</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>45263</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="S10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>45214</v>
-      </c>
-      <c r="C11">
+      <c r="C25" t="s">
+        <v>839</v>
+      </c>
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E25" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>45266</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>843</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>45270</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>848</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>45273</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>848</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>45277</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>839</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>45280</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>45283</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>839</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>45286</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>842</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>45289</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>850</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>45292</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>851</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>45295</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>848</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>45298</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>841</v>
       </c>
-      <c r="E11">
-        <f>LOOKUP(B11,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>6.5</v>
-      </c>
-      <c r="F11">
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E36" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>45301</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>842</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>45304</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>848</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
         <v>856</v>
       </c>
-      <c r="H11">
-        <f>LOOKUP(B11,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>6.5</v>
-      </c>
-      <c r="I11" t="b">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>45308</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>848</v>
+      </c>
+      <c r="D39">
         <v>1</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>11</v>
-      </c>
-      <c r="R11">
+      <c r="E39" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>45312</v>
+      </c>
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="S11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>45217</v>
-      </c>
-      <c r="C12">
+      <c r="C40" t="s">
+        <v>839</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>45315</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>848</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>45319</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>839</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>841</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>45326</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>839</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>45329</v>
+      </c>
+      <c r="B45">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C45" t="s">
         <v>845</v>
       </c>
-      <c r="E12">
-        <f>LOOKUP(B12,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>857</v>
-      </c>
-      <c r="H12">
-        <f>LOOKUP(B12,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>45</v>
-      </c>
-      <c r="I12" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="N12">
-        <v>50</v>
-      </c>
-      <c r="O12">
-        <v>365.75</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>12</v>
-      </c>
-      <c r="R12">
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45334</v>
+      </c>
+      <c r="B46">
         <v>1</v>
       </c>
-      <c r="S12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>338</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>45221</v>
-      </c>
-      <c r="C13">
+      <c r="C46" t="s">
+        <v>839</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45337</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>848</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>45340</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>848</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>45343</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>850</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>45347</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>851</v>
+      </c>
+      <c r="D50">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>841</v>
-      </c>
-      <c r="E13">
-        <f>LOOKUP(B13,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>853</v>
-      </c>
-      <c r="H13">
-        <f>LOOKUP(B13,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>6</v>
-      </c>
-      <c r="I13" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>13</v>
-      </c>
-      <c r="R13">
+      <c r="E50" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>45350</v>
+      </c>
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="S13">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>45224</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>846</v>
-      </c>
-      <c r="E14">
-        <f>LOOKUP(B14,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>858</v>
-      </c>
-      <c r="H14">
-        <f>LOOKUP(B14,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>60</v>
-      </c>
-      <c r="I14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>14</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>376</v>
-      </c>
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>45228</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C51" t="s">
         <v>839</v>
       </c>
-      <c r="E15">
-        <f>LOOKUP(B15,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>1.95</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>859</v>
-      </c>
-      <c r="H15">
-        <f>LOOKUP(B15,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>3.75</v>
-      </c>
-      <c r="I15" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>16</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>399</v>
-      </c>
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>45231</v>
-      </c>
-      <c r="C16">
+      <c r="D51">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>844</v>
-      </c>
-      <c r="E16">
-        <f>LOOKUP(B16,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>4.75</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>860</v>
-      </c>
-      <c r="H16">
-        <f>LOOKUP(B16,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>12</v>
-      </c>
-      <c r="I16" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>411</v>
-      </c>
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>45235</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>844</v>
-      </c>
-      <c r="E17">
-        <f>LOOKUP(B17,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>6.5</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>861</v>
-      </c>
-      <c r="H17">
-        <f>LOOKUP(B17,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>4</v>
-      </c>
-      <c r="I17" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="R17">
-        <v>50</v>
-      </c>
-      <c r="S17">
-        <v>549.68000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>428</v>
-      </c>
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>45238</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>847</v>
-      </c>
-      <c r="E18">
-        <f>LOOKUP(B18,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>6.5</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>856</v>
-      </c>
-      <c r="H18">
-        <f>LOOKUP(B18,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>8</v>
-      </c>
-      <c r="I18" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>45241</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>839</v>
-      </c>
-      <c r="E19">
-        <f>LOOKUP(B19,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>2.75</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>856</v>
-      </c>
-      <c r="H19">
-        <f>LOOKUP(B19,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>2.6</v>
-      </c>
-      <c r="I19" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>451</v>
-      </c>
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>45245</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>839</v>
-      </c>
-      <c r="E20">
-        <f>LOOKUP(B20,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>2.25</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E51" t="s">
         <v>854</v>
       </c>
-      <c r="H20">
-        <f>LOOKUP(B20,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I20" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>462</v>
-      </c>
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>45249</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>846</v>
-      </c>
-      <c r="E21">
-        <f>LOOKUP(B21,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>862</v>
-      </c>
-      <c r="H21">
-        <f>LOOKUP(B21,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>2</v>
-      </c>
-      <c r="I21" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>481</v>
-      </c>
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>45252</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>843</v>
-      </c>
-      <c r="E22">
-        <f>LOOKUP(B22,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>854</v>
-      </c>
-      <c r="H22">
-        <f>LOOKUP(B22,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I22" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>494</v>
-      </c>
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>45256</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>849</v>
-      </c>
-      <c r="E23">
-        <f>LOOKUP(B23,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>856</v>
-      </c>
-      <c r="H23">
-        <f>LOOKUP(B23,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>15</v>
-      </c>
-      <c r="I23" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>505</v>
-      </c>
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>45259</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>850</v>
-      </c>
-      <c r="E24">
-        <f>LOOKUP(B24,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>45</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="G24" t="s">
-        <v>863</v>
-      </c>
-      <c r="H24">
-        <f>LOOKUP(B24,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>9</v>
-      </c>
-      <c r="I24" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>516</v>
-      </c>
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>45263</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>839</v>
-      </c>
-      <c r="E25">
-        <f>LOOKUP(B25,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>1.75</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>853</v>
-      </c>
-      <c r="H25">
-        <f>LOOKUP(B25,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>6</v>
-      </c>
-      <c r="I25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>531</v>
-      </c>
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>45266</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>843</v>
-      </c>
-      <c r="E26">
-        <f>LOOKUP(B26,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>8.5</v>
-      </c>
-      <c r="F26">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>852</v>
-      </c>
-      <c r="H26">
-        <f>LOOKUP(B26,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>55</v>
-      </c>
-      <c r="I26" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>544</v>
-      </c>
-      <c r="B27" s="3">
-        <f t="shared" si="0"/>
-        <v>45270</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>848</v>
-      </c>
-      <c r="E27">
-        <f>LOOKUP(B27,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>6.5</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>852</v>
-      </c>
-      <c r="H27">
-        <f>LOOKUP(B27,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I27" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>569</v>
-      </c>
-      <c r="B28" s="3">
-        <f t="shared" si="0"/>
-        <v>45273</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>848</v>
-      </c>
-      <c r="E28">
-        <f>LOOKUP(B28,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>7.5</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>856</v>
-      </c>
-      <c r="H28">
-        <f>LOOKUP(B28,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>4</v>
-      </c>
-      <c r="I28" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>576</v>
-      </c>
-      <c r="B29" s="3">
-        <f t="shared" si="0"/>
-        <v>45277</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>839</v>
-      </c>
-      <c r="E29">
-        <f>LOOKUP(B29,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>2.25</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>862</v>
-      </c>
-      <c r="H29">
-        <f>LOOKUP(B29,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I29" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>589</v>
-      </c>
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>45280</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>839</v>
-      </c>
-      <c r="E30">
-        <f>LOOKUP(B30,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>4.25</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>856</v>
-      </c>
-      <c r="H30">
-        <f>LOOKUP(B30,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>4.5</v>
-      </c>
-      <c r="I30" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>594</v>
-      </c>
-      <c r="B31" s="3">
-        <f t="shared" si="0"/>
-        <v>45283</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>839</v>
-      </c>
-      <c r="E31">
-        <f>LOOKUP(B31,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>2.5</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>856</v>
-      </c>
-      <c r="H31">
-        <f>LOOKUP(B31,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>1.9</v>
-      </c>
-      <c r="I31" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>604</v>
-      </c>
-      <c r="B32" s="3">
-        <f t="shared" si="0"/>
-        <v>45286</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>842</v>
-      </c>
-      <c r="E32">
-        <f>LOOKUP(B32,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>20</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>853</v>
-      </c>
-      <c r="H32">
-        <f>LOOKUP(B32,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>3</v>
-      </c>
-      <c r="I32" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>620</v>
-      </c>
-      <c r="B33" s="3">
-        <f t="shared" si="0"/>
-        <v>45289</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>850</v>
-      </c>
-      <c r="E33">
-        <f>LOOKUP(B33,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F33">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>864</v>
-      </c>
-      <c r="H33">
-        <f>LOOKUP(B33,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>18</v>
-      </c>
-      <c r="I33" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>631</v>
-      </c>
-      <c r="B34" s="3">
-        <f t="shared" ref="B34:B65" si="2">DATE(YEAR(A34),MONTH(A34),DAY(A34))</f>
-        <v>45292</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>851</v>
-      </c>
-      <c r="E34">
-        <f>LOOKUP(B34,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>6.5</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>862</v>
-      </c>
-      <c r="H34">
-        <f>LOOKUP(B34,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>3.25</v>
-      </c>
-      <c r="I34" t="b">
-        <f t="shared" ref="I34:I51" si="3">OR(C34=2,F34=2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>634</v>
-      </c>
-      <c r="B35" s="3">
-        <f t="shared" si="2"/>
-        <v>45295</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>848</v>
-      </c>
-      <c r="E35">
-        <f>LOOKUP(B35,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>2.6</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>860</v>
-      </c>
-      <c r="H35">
-        <f>LOOKUP(B35,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>2.35</v>
-      </c>
-      <c r="I35" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>641</v>
-      </c>
-      <c r="B36" s="3">
-        <f t="shared" si="2"/>
-        <v>45298</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>841</v>
-      </c>
-      <c r="E36">
-        <f>LOOKUP(B36,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>862</v>
-      </c>
-      <c r="H36">
-        <f>LOOKUP(B36,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>7</v>
-      </c>
-      <c r="I36" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>652</v>
-      </c>
-      <c r="B37" s="3">
-        <f t="shared" si="2"/>
-        <v>45301</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>842</v>
-      </c>
-      <c r="E37">
-        <f>LOOKUP(B37,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>15</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>859</v>
-      </c>
-      <c r="H37">
-        <f>LOOKUP(B37,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>4.5</v>
-      </c>
-      <c r="I37" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>657</v>
-      </c>
-      <c r="B38" s="3">
-        <f t="shared" si="2"/>
-        <v>45304</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>848</v>
-      </c>
-      <c r="E38">
-        <f>LOOKUP(B38,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>4.25</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>856</v>
-      </c>
-      <c r="H38">
-        <f>LOOKUP(B38,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>4.25</v>
-      </c>
-      <c r="I38" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>668</v>
-      </c>
-      <c r="B39" s="3">
-        <f t="shared" si="2"/>
-        <v>45308</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>848</v>
-      </c>
-      <c r="E39">
-        <f>LOOKUP(B39,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>4.75</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>854</v>
-      </c>
-      <c r="H39">
-        <f>LOOKUP(B39,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>4</v>
-      </c>
-      <c r="I39" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>674</v>
-      </c>
-      <c r="B40" s="3">
-        <f t="shared" si="2"/>
-        <v>45312</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>839</v>
-      </c>
-      <c r="E40">
-        <f>LOOKUP(B40,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>1.65</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>862</v>
-      </c>
-      <c r="H40">
-        <f>LOOKUP(B40,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>1.65</v>
-      </c>
-      <c r="I40" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>682</v>
-      </c>
-      <c r="B41" s="3">
-        <f t="shared" si="2"/>
-        <v>45315</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>848</v>
-      </c>
-      <c r="E41">
-        <f>LOOKUP(B41,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>4</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>864</v>
-      </c>
-      <c r="H41">
-        <f>LOOKUP(B41,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>5</v>
-      </c>
-      <c r="I41" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>691</v>
-      </c>
-      <c r="B42" s="3">
-        <f t="shared" si="2"/>
-        <v>45319</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>839</v>
-      </c>
-      <c r="E42">
-        <f>LOOKUP(B42,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>1.4</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>852</v>
-      </c>
-      <c r="H42">
-        <f>LOOKUP(B42,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>15</v>
-      </c>
-      <c r="I42" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>700</v>
-      </c>
-      <c r="B43" s="3">
-        <f t="shared" si="2"/>
-        <v>45322</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>841</v>
-      </c>
-      <c r="E43">
-        <f>LOOKUP(B43,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43" t="s">
-        <v>854</v>
-      </c>
-      <c r="H43">
-        <f>LOOKUP(B43,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>7</v>
-      </c>
-      <c r="I43" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>708</v>
-      </c>
-      <c r="B44" s="3">
-        <f t="shared" si="2"/>
-        <v>45326</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>839</v>
-      </c>
-      <c r="E44">
-        <f>LOOKUP(B44,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>2.25</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>862</v>
-      </c>
-      <c r="H44">
-        <f>LOOKUP(B44,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>1.28</v>
-      </c>
-      <c r="I44" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>719</v>
-      </c>
-      <c r="B45" s="3">
-        <f t="shared" si="2"/>
-        <v>45329</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>845</v>
-      </c>
-      <c r="E45">
-        <f>LOOKUP(B45,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
-      <c r="G45" t="s">
-        <v>852</v>
-      </c>
-      <c r="H45">
-        <f>LOOKUP(B45,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>11</v>
-      </c>
-      <c r="I45" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>726</v>
-      </c>
-      <c r="B46" s="3">
-        <f t="shared" si="2"/>
-        <v>45334</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>839</v>
-      </c>
-      <c r="E46">
-        <f>LOOKUP(B46,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>1.5</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46" t="s">
-        <v>862</v>
-      </c>
-      <c r="H46">
-        <f>LOOKUP(B46,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>4.25</v>
-      </c>
-      <c r="I46" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>736</v>
-      </c>
-      <c r="B47" s="3">
-        <f t="shared" si="2"/>
-        <v>45337</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>848</v>
-      </c>
-      <c r="E47">
-        <f>LOOKUP(B47,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>4.25</v>
-      </c>
-      <c r="F47">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>853</v>
-      </c>
-      <c r="H47">
-        <f>LOOKUP(B47,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>85</v>
-      </c>
-      <c r="I47" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>742</v>
-      </c>
-      <c r="B48" s="3">
-        <f t="shared" si="2"/>
-        <v>45340</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>848</v>
-      </c>
-      <c r="E48">
-        <f>LOOKUP(B48,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>6</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>862</v>
-      </c>
-      <c r="H48">
-        <f>LOOKUP(B48,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>2.75</v>
-      </c>
-      <c r="I48" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>754</v>
-      </c>
-      <c r="B49" s="3">
-        <f t="shared" si="2"/>
-        <v>45343</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>850</v>
-      </c>
-      <c r="E49">
-        <f>LOOKUP(B49,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>4.25</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>861</v>
-      </c>
-      <c r="H49">
-        <f>LOOKUP(B49,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>1.95</v>
-      </c>
-      <c r="I49" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>762</v>
-      </c>
-      <c r="B50" s="3">
-        <f t="shared" si="2"/>
-        <v>45347</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>851</v>
-      </c>
-      <c r="E50">
-        <f>LOOKUP(B50,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>3.75</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>859</v>
-      </c>
-      <c r="H50">
-        <f>LOOKUP(B50,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>4.5</v>
-      </c>
-      <c r="I50" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>773</v>
-      </c>
-      <c r="B51" s="3">
-        <f t="shared" si="2"/>
-        <v>45350</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>839</v>
-      </c>
-      <c r="E51">
-        <f>LOOKUP(B51,Sheet4!F:F,Sheet4!E:E)</f>
-        <v>1.75</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51" t="s">
-        <v>854</v>
-      </c>
-      <c r="H51">
-        <f>LOOKUP(B51,Sheet3!F:F,Sheet3!E:E)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I51" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I51">
-    <sortCondition ref="B2:B51"/>
-  </sortState>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
